--- a/spam.xlsx
+++ b/spam.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -408,6 +408,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
